--- a/output/MOMENTUM/rebalance/rebalance_20240731.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240731.xlsx
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02855577291295152</v>
+        <v>0.02845575433632922</v>
       </c>
       <c r="C4" t="n">
         <v>0.02149554896142434</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.007060223951527184</v>
+        <v>-0.006960205374904882</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02427619343958507</v>
+        <v>0.02420649227923462</v>
       </c>
       <c r="C13" t="n">
         <v>0.02100890207715134</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003267291362433738</v>
+        <v>-0.003197590202083281</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02608761818409042</v>
+        <v>0.02600919212106896</v>
       </c>
       <c r="C25" t="n">
         <v>0.02030860534124629</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.005779012842844128</v>
+        <v>-0.005700586779822665</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02473298223410275</v>
+        <v>0.02464125244146463</v>
       </c>
       <c r="C29" t="n">
         <v>0.01971513353115727</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.005017848702945478</v>
+        <v>-0.004926118910307361</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02127695343644788</v>
+        <v>0.02119104101638633</v>
       </c>
       <c r="C35" t="n">
         <v>0.01925222551928784</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.002024727917160046</v>
+        <v>-0.001938815497098498</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02112005969890606</v>
+        <v>0.02105524832506099</v>
       </c>
       <c r="C43" t="n">
         <v>0.01880118694362018</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002318872755285882</v>
+        <v>-0.002254061381440811</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02222010637682505</v>
+        <v>0.02216920320919098</v>
       </c>
       <c r="C51" t="n">
         <v>0.0183026706231454</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.003917435753679643</v>
+        <v>-0.003866532586045572</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01851407390251224</v>
+        <v>0.01846436036449279</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01851407390251224</v>
+        <v>-0.01846436036449279</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01981251438365854</v>
+        <v>0.01977475902488431</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01981251438365854</v>
+        <v>-0.01977475902488431</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01933022074979728</v>
+        <v>0.01926889041708585</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01933022074979728</v>
+        <v>-0.01926889041708585</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01974483707040542</v>
+        <v>0.01965199085787028</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01974483707040542</v>
+        <v>-0.01965199085787028</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02114982557759791</v>
+        <v>0.02108813896396848</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02114982557759791</v>
+        <v>-0.02108813896396848</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0208427158446148</v>
+        <v>0.02075792135492141</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0208427158446148</v>
+        <v>-0.02075792135492141</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01666769289785159</v>
+        <v>0.01671377540363368</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01666769289785159</v>
+        <v>-0.01671377540363368</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0205947574738828</v>
+        <v>0.02053932870539608</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0205947574738828</v>
+        <v>-0.02053932870539608</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02087496870461845</v>
+        <v>0.02080032363382509</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02087496870461845</v>
+        <v>-0.02080032363382509</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02027654680395753</v>
+        <v>0.02019697590652926</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02027654680395753</v>
+        <v>-0.02019697590652926</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.019934542089396</v>
+        <v>0.01985322969024326</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.019934542089396</v>
+        <v>-0.01985322969024326</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01993299086534224</v>
+        <v>0.01988138992861827</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01993299086534224</v>
+        <v>-0.01988138992861827</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01996747159779388</v>
+        <v>0.02029758613253957</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01996747159779388</v>
+        <v>-0.02029758613253957</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02395002836538116</v>
+        <v>0.02394472991916561</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02395002836538116</v>
+        <v>-0.02394472991916561</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01422155287653542</v>
+        <v>0.01420026534593766</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01422155287653542</v>
+        <v>-0.01420026534593766</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01930793074450903</v>
+        <v>0.01930827722259619</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01930793074450903</v>
+        <v>-0.01930827722259619</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01811732555216604</v>
+        <v>0.01847787851234672</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01811732555216604</v>
+        <v>-0.01847787851234672</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01963490391312113</v>
+        <v>0.01960149971173848</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01963490391312113</v>
+        <v>-0.01960149971173848</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01956727958452036</v>
+        <v>0.01949013871004797</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01956727958452036</v>
+        <v>-0.01949013871004797</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02252967583022217</v>
+        <v>0.02247074005867937</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02252967583022217</v>
+        <v>-0.02247074005867937</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01923997376482688</v>
+        <v>0.01971194125201251</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01923997376482688</v>
+        <v>-0.01971194125201251</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01781558079989176</v>
+        <v>0.01778395179680842</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01781558079989176</v>
+        <v>-0.01778395179680842</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01917490508740351</v>
+        <v>0.01913510017677688</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01917490508740351</v>
+        <v>-0.01913510017677688</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02003232791532437</v>
+        <v>0.01997952815307438</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.02003232791532437</v>
+        <v>-0.01997952815307438</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01825933980919204</v>
+        <v>0.01824793095734869</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01825933980919204</v>
+        <v>-0.01824793095734869</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01832454172296532</v>
+        <v>0.01826626666134803</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01832454172296532</v>
+        <v>-0.01826626666134803</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01739524835689997</v>
+        <v>0.01733784014659668</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01739524835689997</v>
+        <v>-0.01733784014659668</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01825704676541547</v>
+        <v>0.01819900027449893</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01825704676541547</v>
+        <v>-0.01819900027449893</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01989347162843981</v>
+        <v>0.01983760549601488</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01989347162843981</v>
+        <v>-0.01983760549601488</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01819412788130207</v>
+        <v>0.01816842068116922</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01819412788130207</v>
+        <v>-0.01816842068116922</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02058577533666676</v>
+        <v>0.0205378349728775</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02058577533666676</v>
+        <v>-0.0205378349728775</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02127539147410322</v>
+        <v>0.02201213835376313</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02127539147410322</v>
+        <v>-0.02201213835376313</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01960068170527368</v>
+        <v>0.01956504807460575</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01960068170527368</v>
+        <v>-0.01956504807460575</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01286230033097508</v>
+        <v>0.01312209874623819</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01286230033097508</v>
+        <v>-0.01312209874623819</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01905431897878821</v>
+        <v>0.01900363154743532</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01905431897878821</v>
+        <v>-0.01900363154743532</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02069303379248114</v>
+        <v>0.02063965465732779</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.02069303379248114</v>
+        <v>-0.02063965465732779</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01672654598489362</v>
+        <v>0.01671605277985552</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01672654598489362</v>
+        <v>-0.01671605277985552</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01786829377717593</v>
+        <v>0.01796327986118731</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01786829377717593</v>
+        <v>-0.01796327986118731</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8130,13 +8130,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01894847458703146</v>
+        <v>0.01890271942885069</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01894847458703146</v>
+        <v>-0.01890271942885069</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8151,13 +8151,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02385503269033822</v>
+        <v>0.02379967765765103</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02385503269033822</v>
+        <v>-0.02379967765765103</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0196905659609757</v>
+        <v>0.01963753379746069</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.0196905659609757</v>
+        <v>-0.01963753379746069</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8193,13 +8193,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01830850348920283</v>
+        <v>0.01827158686392009</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01830850348920283</v>
+        <v>-0.01827158686392009</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -8214,13 +8214,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02070297704964023</v>
+        <v>0.02065077406992227</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.02070297704964023</v>
+        <v>-0.02065077406992227</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20240731.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240731.xlsx
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02845575433632922</v>
+        <v>0.0288789008125007</v>
       </c>
       <c r="C4" t="n">
         <v>0.02149554896142434</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.006960205374904882</v>
+        <v>-0.007383351851076369</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02420649227923462</v>
+        <v>0.02455089500060025</v>
       </c>
       <c r="C13" t="n">
         <v>0.02100890207715134</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003197590202083281</v>
+        <v>-0.003541992923448912</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02600919212106896</v>
+        <v>0.02638281724222003</v>
       </c>
       <c r="C25" t="n">
         <v>0.02030860534124629</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.005700586779822665</v>
+        <v>-0.00607421190097374</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02464125244146463</v>
+        <v>0.02475297887555336</v>
       </c>
       <c r="C29" t="n">
         <v>0.01971513353115727</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.004926118910307361</v>
+        <v>-0.005037845344396087</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02119104101638633</v>
+        <v>0.02115038996384714</v>
       </c>
       <c r="C35" t="n">
         <v>0.01925222551928784</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.001938815497098498</v>
+        <v>-0.001898164444559307</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02105524832506099</v>
+        <v>0.0213590474702987</v>
       </c>
       <c r="C43" t="n">
         <v>0.01880118694362018</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002254061381440811</v>
+        <v>-0.002557860526678519</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02216920320919098</v>
+        <v>0.02247154192098593</v>
       </c>
       <c r="C51" t="n">
         <v>0.0183026706231454</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.003866532586045572</v>
+        <v>-0.004168871297840528</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01846436036449279</v>
+        <v>0.01851976791506527</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01846436036449279</v>
+        <v>-0.01851976791506527</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01977475902488431</v>
+        <v>0.02003670639474839</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01977475902488431</v>
+        <v>-0.02003670639474839</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01926889041708585</v>
+        <v>0.01876059846287793</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01926889041708585</v>
+        <v>-0.01876059846287793</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01965199085787028</v>
+        <v>0.01951712978198743</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01965199085787028</v>
+        <v>-0.01951712978198743</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02108813896396848</v>
+        <v>0.0213891501700561</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02108813896396848</v>
+        <v>-0.0213891501700561</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02075792135492141</v>
+        <v>0.02041467346264228</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02075792135492141</v>
+        <v>-0.02041467346264228</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01671377540363368</v>
+        <v>0.01672579874481624</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01671377540363368</v>
+        <v>-0.01672579874481624</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02053932870539608</v>
+        <v>0.02082780109502891</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02053932870539608</v>
+        <v>-0.02082780109502891</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02080032363382509</v>
+        <v>0.02111118310551176</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02080032363382509</v>
+        <v>-0.02111118310551176</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02019697590652926</v>
+        <v>0.02026779970221534</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02019697590652926</v>
+        <v>-0.02026779970221534</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01985322969024326</v>
+        <v>0.02016011492657527</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01985322969024326</v>
+        <v>-0.02016011492657527</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01988138992861827</v>
+        <v>0.02015854614937132</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01988138992861827</v>
+        <v>-0.02015854614937132</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02029758613253957</v>
+        <v>0.01980152324658156</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02029758613253957</v>
+        <v>-0.01980152324658156</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02394472991916561</v>
+        <v>0.02373222782352899</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02394472991916561</v>
+        <v>-0.02373222782352899</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01420026534593766</v>
+        <v>0.01367982389286793</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01420026534593766</v>
+        <v>-0.01367982389286793</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01930827722259619</v>
+        <v>0.01946937158456655</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01930827722259619</v>
+        <v>-0.01946937158456655</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01847787851234672</v>
+        <v>0.01789540715174839</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01847787851234672</v>
+        <v>-0.01789540715174839</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01960149971173848</v>
+        <v>0.01985708614151458</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01960149971173848</v>
+        <v>-0.01985708614151458</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01949013871004797</v>
+        <v>0.01978869659786164</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01949013871004797</v>
+        <v>-0.01978869659786164</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02247074005867937</v>
+        <v>0.02278461436229187</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02247074005867937</v>
+        <v>-0.02278461436229187</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01971194125201251</v>
+        <v>0.01894388997492271</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01971194125201251</v>
+        <v>-0.01894388997492271</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01778395179680842</v>
+        <v>0.01801717615578236</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01778395179680842</v>
+        <v>-0.01801717615578236</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01913510017677688</v>
+        <v>0.01891084318146317</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01913510017677688</v>
+        <v>-0.01891084318146317</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01997952815307438</v>
+        <v>0.020259007265314</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01997952815307438</v>
+        <v>-0.020259007265314</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01824793095734869</v>
+        <v>0.01846595659864769</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01824793095734869</v>
+        <v>-0.01846595659864769</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01826626666134803</v>
+        <v>0.01853189631620967</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01826626666134803</v>
+        <v>-0.01853189631620967</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01733784014659668</v>
+        <v>0.01759208736668045</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01733784014659668</v>
+        <v>-0.01759208736668045</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01819900027449893</v>
+        <v>0.01757252237381978</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01819900027449893</v>
+        <v>-0.01757252237381978</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01983760549601488</v>
+        <v>0.02011857972555328</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01983760549601488</v>
+        <v>-0.02011857972555328</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01816842068116922</v>
+        <v>0.01819780887723876</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01816842068116922</v>
+        <v>-0.01819780887723876</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0205378349728775</v>
+        <v>0.02009037472149997</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0205378349728775</v>
+        <v>-0.02009037472149997</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02201213835376313</v>
+        <v>0.02071262974142923</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02201213835376313</v>
+        <v>-0.02071262974142923</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01956504807460575</v>
+        <v>0.01982247668622076</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01956504807460575</v>
+        <v>-0.01982247668622076</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01312209874623819</v>
+        <v>0.01242861618336654</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01312209874623819</v>
+        <v>-0.01242861618336654</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01900363154743532</v>
+        <v>0.01919610034050334</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01900363154743532</v>
+        <v>-0.01919610034050334</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02063965465732779</v>
+        <v>0.02055679674259341</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.02063965465732779</v>
+        <v>-0.02055679674259341</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01671605277985552</v>
+        <v>0.0165717676355523</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01671605277985552</v>
+        <v>-0.0165717676355523</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01796327986118731</v>
+        <v>0.01794979277368409</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01796327986118731</v>
+        <v>-0.01794979277368409</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8130,13 +8130,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01890271942885069</v>
+        <v>0.01901360475882823</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01890271942885069</v>
+        <v>-0.01901360475882823</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8151,13 +8151,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02379967765765103</v>
+        <v>0.02358909903907698</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02379967765765103</v>
+        <v>-0.02358909903907698</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.01963753379746069</v>
+        <v>0.01991337804311756</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.01963753379746069</v>
+        <v>-0.01991337804311756</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8193,13 +8193,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01827158686392009</v>
+        <v>0.01851567659897609</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01827158686392009</v>
+        <v>-0.01851567659897609</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -8214,13 +8214,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02065077406992227</v>
+        <v>0.02058532690165569</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.02065077406992227</v>
+        <v>-0.02058532690165569</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
